--- a/book.xlsx
+++ b/book.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\дом\Desktop\Рома\Расписание\servers\raspServer\Последняя версия проектаv2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\дом\Desktop\Рома\Расписание\servers\raspServer\Последняя версия проектаv2.0\secret-woodland-00732\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Изменения на 19.01 (среда)</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>18:30 - 19:05</t>
+  </si>
+  <si>
+    <t>Физика</t>
   </si>
 </sst>
 </file>
@@ -912,7 +915,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:K9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,7 +1057,7 @@
         <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I7">
         <v>6</v>

--- a/book.xlsx
+++ b/book.xlsx
@@ -915,7 +915,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,12 +1102,6 @@
       <c r="E9">
         <v>15</v>
       </c>
-      <c r="G9">
-        <v>28</v>
-      </c>
-      <c r="I9">
-        <v>6</v>
-      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">

--- a/book.xlsx
+++ b/book.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\дом\Desktop\Рома\Расписание\servers\raspServer\Последняя версия проектаv2.0\secret-woodland-00732\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\дом\Desktop\Рома\Расписание\servers\raspServer\Последняя версия проектаv2.0\gimnasia17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Изменения на 19.01 (среда)</t>
   </si>
@@ -88,6 +88,21 @@
   </si>
   <si>
     <t>Физика</t>
+  </si>
+  <si>
+    <t>8а</t>
+  </si>
+  <si>
+    <t>физика</t>
+  </si>
+  <si>
+    <t>изо</t>
+  </si>
+  <si>
+    <t>русскяз</t>
+  </si>
+  <si>
+    <t>история</t>
   </si>
 </sst>
 </file>
@@ -912,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,17 +944,17 @@
     <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -955,8 +970,11 @@
       <c r="H3" t="s">
         <v>6</v>
       </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -984,8 +1002,14 @@
       <c r="I4">
         <v>6</v>
       </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
@@ -1010,8 +1034,14 @@
       <c r="I5">
         <v>6</v>
       </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2</v>
       </c>
@@ -1036,8 +1066,14 @@
       <c r="I6">
         <v>6</v>
       </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>3</v>
       </c>
@@ -1062,8 +1098,14 @@
       <c r="I7">
         <v>6</v>
       </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>4</v>
       </c>
@@ -1089,7 +1131,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>5</v>
       </c>
@@ -1103,7 +1145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>6</v>
       </c>

--- a/book.xlsx
+++ b/book.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>Изменения на 19.01 (среда)</t>
   </si>
@@ -103,6 +103,30 @@
   </si>
   <si>
     <t>история</t>
+  </si>
+  <si>
+    <t>9б</t>
+  </si>
+  <si>
+    <t>музыка</t>
+  </si>
+  <si>
+    <t>тестовый урок</t>
+  </si>
+  <si>
+    <t>матем</t>
+  </si>
+  <si>
+    <t>англяз</t>
+  </si>
+  <si>
+    <t>10в</t>
+  </si>
+  <si>
+    <t>11а</t>
+  </si>
+  <si>
+    <t>информатика</t>
   </si>
 </sst>
 </file>
@@ -927,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,17 +968,17 @@
     <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -973,8 +997,17 @@
       <c r="J3" t="s">
         <v>23</v>
       </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1041,26 @@
       <c r="K4">
         <v>2</v>
       </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4">
+        <v>28</v>
+      </c>
+      <c r="N4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4">
+        <v>33</v>
+      </c>
+      <c r="P4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
@@ -1040,8 +1091,26 @@
       <c r="K5">
         <v>3</v>
       </c>
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5">
+        <v>15</v>
+      </c>
+      <c r="N5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5">
+        <v>12</v>
+      </c>
+      <c r="P5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2</v>
       </c>
@@ -1072,8 +1141,26 @@
       <c r="K6">
         <v>4</v>
       </c>
+      <c r="L6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6">
+        <v>15</v>
+      </c>
+      <c r="N6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6">
+        <v>6</v>
+      </c>
+      <c r="P6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>3</v>
       </c>
@@ -1104,8 +1191,26 @@
       <c r="K7">
         <v>5</v>
       </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7">
+        <v>15</v>
+      </c>
+      <c r="N7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7">
+        <v>11</v>
+      </c>
+      <c r="P7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7">
+        <v>8</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>4</v>
       </c>
@@ -1130,8 +1235,20 @@
       <c r="I8">
         <v>21</v>
       </c>
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8">
+        <v>15</v>
+      </c>
+      <c r="P8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8">
+        <v>9</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>5</v>
       </c>
@@ -1145,7 +1262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>6</v>
       </c>

--- a/book.xlsx
+++ b/book.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Изменения на 19.01 (среда)</t>
   </si>
@@ -88,45 +88,6 @@
   </si>
   <si>
     <t>Физика</t>
-  </si>
-  <si>
-    <t>8а</t>
-  </si>
-  <si>
-    <t>физика</t>
-  </si>
-  <si>
-    <t>изо</t>
-  </si>
-  <si>
-    <t>русскяз</t>
-  </si>
-  <si>
-    <t>история</t>
-  </si>
-  <si>
-    <t>9б</t>
-  </si>
-  <si>
-    <t>музыка</t>
-  </si>
-  <si>
-    <t>тестовый урок</t>
-  </si>
-  <si>
-    <t>матем</t>
-  </si>
-  <si>
-    <t>англяз</t>
-  </si>
-  <si>
-    <t>10в</t>
-  </si>
-  <si>
-    <t>11а</t>
-  </si>
-  <si>
-    <t>информатика</t>
   </si>
 </sst>
 </file>
@@ -951,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="J3" sqref="J3:Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,17 +929,17 @@
     <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -994,20 +955,8 @@
       <c r="H3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1035,32 +984,8 @@
       <c r="I4">
         <v>6</v>
       </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4">
-        <v>28</v>
-      </c>
-      <c r="N4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4">
-        <v>33</v>
-      </c>
-      <c r="P4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4">
-        <v>6</v>
-      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
@@ -1085,32 +1010,8 @@
       <c r="I5">
         <v>6</v>
       </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5">
-        <v>15</v>
-      </c>
-      <c r="N5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5">
-        <v>12</v>
-      </c>
-      <c r="P5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5">
-        <v>5</v>
-      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2</v>
       </c>
@@ -1135,32 +1036,8 @@
       <c r="I6">
         <v>6</v>
       </c>
-      <c r="J6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6">
-        <v>4</v>
-      </c>
-      <c r="L6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6">
-        <v>15</v>
-      </c>
-      <c r="N6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6">
-        <v>6</v>
-      </c>
-      <c r="P6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6">
-        <v>7</v>
-      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>3</v>
       </c>
@@ -1185,32 +1062,8 @@
       <c r="I7">
         <v>6</v>
       </c>
-      <c r="J7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="L7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7">
-        <v>15</v>
-      </c>
-      <c r="N7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7">
-        <v>11</v>
-      </c>
-      <c r="P7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q7">
-        <v>8</v>
-      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>4</v>
       </c>
@@ -1235,20 +1088,8 @@
       <c r="I8">
         <v>21</v>
       </c>
-      <c r="L8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8">
-        <v>15</v>
-      </c>
-      <c r="P8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8">
-        <v>9</v>
-      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>5</v>
       </c>
@@ -1262,7 +1103,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>6</v>
       </c>

--- a/book.xlsx
+++ b/book.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\дом\Desktop\Рома\Расписание\servers\raspServer\Последняя версия проектаv2.0\gimnasia17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\дом\Desktop\Рома\Расписание\servers\raspServer\Последняя версия проектаv2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
-  <si>
-    <t>Изменения на 19.01 (среда)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>Ii смена</t>
   </si>
@@ -42,9 +39,6 @@
     <t>7в</t>
   </si>
   <si>
-    <t>Среда</t>
-  </si>
-  <si>
     <t>13:40 - 14:15</t>
   </si>
   <si>
@@ -60,24 +54,12 @@
     <t>Физическая культура</t>
   </si>
   <si>
-    <t>Литература</t>
-  </si>
-  <si>
     <t>15:20 - 15:55</t>
   </si>
   <si>
-    <t>Биология</t>
-  </si>
-  <si>
-    <t>Обществознание</t>
-  </si>
-  <si>
     <t>16:10 - 16:45</t>
   </si>
   <si>
-    <t>История</t>
-  </si>
-  <si>
     <t>17:00 - 17:35</t>
   </si>
   <si>
@@ -87,7 +69,16 @@
     <t>18:30 - 19:05</t>
   </si>
   <si>
+    <t>Изменения на 20.05 (пятница)</t>
+  </si>
+  <si>
+    <t>Пятница</t>
+  </si>
+  <si>
     <t>Физика</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -914,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:Q8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,55 +922,55 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I4">
         <v>6</v>
@@ -990,22 +981,22 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I5">
         <v>6</v>
@@ -1016,25 +1007,22 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
         <v>10</v>
       </c>
-      <c r="E6">
-        <v>15</v>
-      </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1042,22 +1030,19 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
       </c>
       <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
         <v>10</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
       </c>
       <c r="I7">
         <v>6</v>
@@ -1068,25 +1053,16 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8">
-        <v>21</v>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1094,13 +1070,16 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1108,7 +1087,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
